--- a/data input/prelims_data.xlsx
+++ b/data input/prelims_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/data input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A577DDF-D3E0-9B43-B915-3006179617AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314DDFA0-13DD-0344-9D1C-53911C00C349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{2114AE23-4723-3F48-88AE-F53CC59B0CBE}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="235">
   <si>
     <t>Team</t>
   </si>
@@ -162,57 +162,12 @@
     <t>Rosemont, IL</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Enter "Y" or "N" for QR codes to be included.</t>
   </si>
   <si>
     <t>Enter "Y" or "N" for text input to be included.</t>
   </si>
   <si>
-    <t>Saturday, June 12, 2022</t>
-  </si>
-  <si>
-    <t>Link 1</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Link 2</t>
-  </si>
-  <si>
-    <t>Link 3</t>
-  </si>
-  <si>
-    <t>Link 4</t>
-  </si>
-  <si>
-    <t>Link 5</t>
-  </si>
-  <si>
-    <t>Link 6</t>
-  </si>
-  <si>
-    <t>This is the placeholder text for the prelim schedule individualized for each team. Useful pieces of information to include in this section are: expected start time and length of time for lunch, information on tiebreakers, where to report back after lunch...</t>
-  </si>
-  <si>
-    <t>This is the placeholder text for the prelim schedule individualized for each room. Useful pieces of information to include in this section are: how to report protests, tiebreaker procedure, where to go for lunch…</t>
-  </si>
-  <si>
-    <t>Group A</t>
-  </si>
-  <si>
-    <t>Group B</t>
-  </si>
-  <si>
-    <t>Group C</t>
-  </si>
-  <si>
-    <t>Group D</t>
-  </si>
-  <si>
     <t>Room 1</t>
   </si>
   <si>
@@ -391,6 +346,426 @@
   </si>
   <si>
     <t>TD6</t>
+  </si>
+  <si>
+    <t>Avenue</t>
+  </si>
+  <si>
+    <t>Bayou</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Expressway</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Glen</t>
+  </si>
+  <si>
+    <t>Harbor</t>
+  </si>
+  <si>
+    <t>Inlet</t>
+  </si>
+  <si>
+    <t>Team E1</t>
+  </si>
+  <si>
+    <t>Team E2</t>
+  </si>
+  <si>
+    <t>Team E3</t>
+  </si>
+  <si>
+    <t>Team E4</t>
+  </si>
+  <si>
+    <t>Team E5</t>
+  </si>
+  <si>
+    <t>Team E6</t>
+  </si>
+  <si>
+    <t>Team F1</t>
+  </si>
+  <si>
+    <t>Team F2</t>
+  </si>
+  <si>
+    <t>Team F3</t>
+  </si>
+  <si>
+    <t>Team F4</t>
+  </si>
+  <si>
+    <t>Team F5</t>
+  </si>
+  <si>
+    <t>Team F6</t>
+  </si>
+  <si>
+    <t>Team G1</t>
+  </si>
+  <si>
+    <t>Team G2</t>
+  </si>
+  <si>
+    <t>Team G3</t>
+  </si>
+  <si>
+    <t>Team G4</t>
+  </si>
+  <si>
+    <t>Team G5</t>
+  </si>
+  <si>
+    <t>Team G6</t>
+  </si>
+  <si>
+    <t>Team H1</t>
+  </si>
+  <si>
+    <t>Team H2</t>
+  </si>
+  <si>
+    <t>Team H3</t>
+  </si>
+  <si>
+    <t>Team H4</t>
+  </si>
+  <si>
+    <t>Team H5</t>
+  </si>
+  <si>
+    <t>Team H6</t>
+  </si>
+  <si>
+    <t>Team J1</t>
+  </si>
+  <si>
+    <t>Team J2</t>
+  </si>
+  <si>
+    <t>Team J3</t>
+  </si>
+  <si>
+    <t>Team J4</t>
+  </si>
+  <si>
+    <t>Team J5</t>
+  </si>
+  <si>
+    <t>Team J6</t>
+  </si>
+  <si>
+    <t>Team I1</t>
+  </si>
+  <si>
+    <t>Team I2</t>
+  </si>
+  <si>
+    <t>Team I3</t>
+  </si>
+  <si>
+    <t>Team I4</t>
+  </si>
+  <si>
+    <t>Team I5</t>
+  </si>
+  <si>
+    <t>Team I6</t>
+  </si>
+  <si>
+    <t>Team K1</t>
+  </si>
+  <si>
+    <t>Team K2</t>
+  </si>
+  <si>
+    <t>Team K3</t>
+  </si>
+  <si>
+    <t>Team K4</t>
+  </si>
+  <si>
+    <t>Team K5</t>
+  </si>
+  <si>
+    <t>Team K6</t>
+  </si>
+  <si>
+    <t>Team L1</t>
+  </si>
+  <si>
+    <t>Team L2</t>
+  </si>
+  <si>
+    <t>Team L3</t>
+  </si>
+  <si>
+    <t>Team L4</t>
+  </si>
+  <si>
+    <t>Team L5</t>
+  </si>
+  <si>
+    <t>Team L6</t>
+  </si>
+  <si>
+    <t>Room 13</t>
+  </si>
+  <si>
+    <t>Room 14</t>
+  </si>
+  <si>
+    <t>Room 15</t>
+  </si>
+  <si>
+    <t>Room 16</t>
+  </si>
+  <si>
+    <t>Room 17</t>
+  </si>
+  <si>
+    <t>Room 18</t>
+  </si>
+  <si>
+    <t>Room 19</t>
+  </si>
+  <si>
+    <t>Room 20</t>
+  </si>
+  <si>
+    <t>Room 21</t>
+  </si>
+  <si>
+    <t>Room 22</t>
+  </si>
+  <si>
+    <t>Room 23</t>
+  </si>
+  <si>
+    <t>Room 24</t>
+  </si>
+  <si>
+    <t>Room 25</t>
+  </si>
+  <si>
+    <t>Room 26</t>
+  </si>
+  <si>
+    <t>Room 27</t>
+  </si>
+  <si>
+    <t>Room 28</t>
+  </si>
+  <si>
+    <t>Room 29</t>
+  </si>
+  <si>
+    <t>Room 30</t>
+  </si>
+  <si>
+    <t>Room 31</t>
+  </si>
+  <si>
+    <t>Room 32</t>
+  </si>
+  <si>
+    <t>Room 33</t>
+  </si>
+  <si>
+    <t>Room 34</t>
+  </si>
+  <si>
+    <t>Room 35</t>
+  </si>
+  <si>
+    <t>Room 36</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>TE2</t>
+  </si>
+  <si>
+    <t>TE3</t>
+  </si>
+  <si>
+    <t>TE4</t>
+  </si>
+  <si>
+    <t>TE5</t>
+  </si>
+  <si>
+    <t>TE6</t>
+  </si>
+  <si>
+    <t>TF1</t>
+  </si>
+  <si>
+    <t>TF2</t>
+  </si>
+  <si>
+    <t>TF3</t>
+  </si>
+  <si>
+    <t>TF4</t>
+  </si>
+  <si>
+    <t>TF5</t>
+  </si>
+  <si>
+    <t>TF6</t>
+  </si>
+  <si>
+    <t>TG1</t>
+  </si>
+  <si>
+    <t>TG2</t>
+  </si>
+  <si>
+    <t>TG3</t>
+  </si>
+  <si>
+    <t>TG4</t>
+  </si>
+  <si>
+    <t>TG5</t>
+  </si>
+  <si>
+    <t>TG6</t>
+  </si>
+  <si>
+    <t>TH1</t>
+  </si>
+  <si>
+    <t>TH2</t>
+  </si>
+  <si>
+    <t>TH3</t>
+  </si>
+  <si>
+    <t>TH4</t>
+  </si>
+  <si>
+    <t>TH5</t>
+  </si>
+  <si>
+    <t>TH6</t>
+  </si>
+  <si>
+    <t>TJ1</t>
+  </si>
+  <si>
+    <t>TJ2</t>
+  </si>
+  <si>
+    <t>TJ3</t>
+  </si>
+  <si>
+    <t>TJ4</t>
+  </si>
+  <si>
+    <t>TJ5</t>
+  </si>
+  <si>
+    <t>TJ6</t>
+  </si>
+  <si>
+    <t>Junction</t>
+  </si>
+  <si>
+    <t>Knoll</t>
+  </si>
+  <si>
+    <t>Landing</t>
+  </si>
+  <si>
+    <t>https://forms.gle/AnX5uc7Lu2GpdiwMA</t>
+  </si>
+  <si>
+    <t>Moderator Feedback</t>
+  </si>
+  <si>
+    <t>https://pacensc.github.io/</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>https://www.hsquizbowl.org/db/</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>This is the placeholder text for the prelim schedule individualized for each team. This is how you create \textbf{bold text} or \textit{italicized text}. Useful pieces of information to include in this section are: expected start time and length of time for lunch, information on tiebreakers, where to report back after lunch...</t>
+  </si>
+  <si>
+    <t>This is the placeholder text for the prelim schedule individualized for each room. This is how you create \textbf{bold text} or \textit{italicized text}. Useful pieces of information to include in this section are: how to report protests, tiebreaker procedure, where to go for lunch…</t>
+  </si>
+  <si>
+    <t>TI1</t>
+  </si>
+  <si>
+    <t>TI2</t>
+  </si>
+  <si>
+    <t>TI3</t>
+  </si>
+  <si>
+    <t>TI4</t>
+  </si>
+  <si>
+    <t>TI5</t>
+  </si>
+  <si>
+    <t>TI6</t>
+  </si>
+  <si>
+    <t>TK1</t>
+  </si>
+  <si>
+    <t>TK2</t>
+  </si>
+  <si>
+    <t>TK3</t>
+  </si>
+  <si>
+    <t>TK4</t>
+  </si>
+  <si>
+    <t>TK5</t>
+  </si>
+  <si>
+    <t>TK6</t>
+  </si>
+  <si>
+    <t>TL1</t>
+  </si>
+  <si>
+    <t>TL2</t>
+  </si>
+  <si>
+    <t>TL3</t>
+  </si>
+  <si>
+    <t>TL4</t>
+  </si>
+  <si>
+    <t>TL5</t>
+  </si>
+  <si>
+    <t>TL6</t>
   </si>
 </sst>
 </file>
@@ -516,7 +891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -593,6 +968,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -601,7 +989,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -622,9 +1010,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,9 +1017,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
@@ -646,14 +1028,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -976,7 +1373,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
@@ -998,58 +1395,58 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="40" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="40" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="40" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="20">
+        <v>44723</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" ht="40" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15" t="s">
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="40" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="40" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1070,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0CB595-5535-8C4C-9710-F68F5657C36B}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1080,8 +1477,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="28.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="3"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1">
@@ -1096,290 +1493,866 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>62</v>
+      <c r="A2" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>'group names'!A$2</f>
-        <v>Group A</v>
+        <v>Avenue</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
-        <v>64</v>
+      <c r="A3" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>'group names'!A$2</f>
-        <v>Group A</v>
+        <v>Avenue</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
-        <v>66</v>
+      <c r="A4" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>'group names'!A$2</f>
-        <v>Group A</v>
+        <v>Avenue</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
-        <v>68</v>
+      <c r="A5" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>'group names'!A$2</f>
-        <v>Group A</v>
+        <v>Avenue</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13" t="s">
-        <v>70</v>
+      <c r="A6" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>'group names'!A$2</f>
-        <v>Group A</v>
+        <v>Avenue</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
-        <v>72</v>
+      <c r="A7" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>'group names'!A$2</f>
-        <v>Group A</v>
+        <v>Avenue</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13" t="s">
-        <v>74</v>
+      <c r="A8" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>'group names'!A$3</f>
-        <v>Group B</v>
+        <v>Bayou</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
-        <v>76</v>
+      <c r="A9" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>'group names'!A$3</f>
-        <v>Group B</v>
+        <v>Bayou</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13" t="s">
-        <v>78</v>
+      <c r="A10" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>'group names'!A$3</f>
-        <v>Group B</v>
+        <v>Bayou</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="13" t="s">
-        <v>80</v>
+      <c r="A11" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>'group names'!A$3</f>
-        <v>Group B</v>
+        <v>Bayou</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
-        <v>82</v>
+      <c r="A12" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>'group names'!A$3</f>
-        <v>Group B</v>
+        <v>Bayou</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
-        <v>84</v>
+      <c r="A13" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="B13" s="4" t="str">
         <f>'group names'!A$3</f>
-        <v>Group B</v>
+        <v>Bayou</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13" t="s">
-        <v>86</v>
+      <c r="A14" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>'group names'!A$4</f>
-        <v>Group C</v>
+        <v>Circle</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
-        <v>88</v>
+      <c r="A15" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="B15" s="4" t="str">
         <f>'group names'!A$4</f>
-        <v>Group C</v>
+        <v>Circle</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
-        <v>90</v>
+      <c r="A16" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="B16" s="4" t="str">
         <f>'group names'!A$4</f>
-        <v>Group C</v>
+        <v>Circle</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
-        <v>92</v>
+      <c r="A17" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="B17" s="4" t="str">
         <f>'group names'!A$4</f>
-        <v>Group C</v>
+        <v>Circle</v>
       </c>
       <c r="C17" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="13" t="s">
-        <v>94</v>
+      <c r="A18" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>'group names'!A$4</f>
-        <v>Group C</v>
+        <v>Circle</v>
       </c>
       <c r="C18" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
-        <v>96</v>
+      <c r="A19" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="4" t="str">
         <f>'group names'!A$4</f>
-        <v>Group C</v>
+        <v>Circle</v>
       </c>
       <c r="C19" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
-        <v>98</v>
+      <c r="A20" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="B20" s="4" t="str">
         <f>'group names'!A$5</f>
-        <v>Group D</v>
+        <v>Drive</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
-        <v>100</v>
+      <c r="A21" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B21" s="4" t="str">
         <f>'group names'!A$5</f>
-        <v>Group D</v>
+        <v>Drive</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13" t="s">
-        <v>102</v>
+      <c r="A22" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>'group names'!A$5</f>
-        <v>Group D</v>
+        <v>Drive</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
-        <v>104</v>
+      <c r="A23" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="B23" s="4" t="str">
         <f>'group names'!A$5</f>
-        <v>Group D</v>
+        <v>Drive</v>
       </c>
       <c r="C23" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="13" t="s">
-        <v>106</v>
+      <c r="A24" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B24" s="4" t="str">
         <f>'group names'!A$5</f>
-        <v>Group D</v>
+        <v>Drive</v>
       </c>
       <c r="C24" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>108</v>
+      <c r="A25" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="B25" s="4" t="str">
         <f>'group names'!A$5</f>
-        <v>Group D</v>
+        <v>Drive</v>
       </c>
       <c r="C25" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>'group names'!A$6</f>
+        <v>Expressway</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>'group names'!A$6</f>
+        <v>Expressway</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>'group names'!A$6</f>
+        <v>Expressway</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>'group names'!A$6</f>
+        <v>Expressway</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>'group names'!A$6</f>
+        <v>Expressway</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>'group names'!A$6</f>
+        <v>Expressway</v>
+      </c>
+      <c r="C31" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f>'group names'!A$7</f>
+        <v>Ford</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>'group names'!A$7</f>
+        <v>Ford</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f>'group names'!A$7</f>
+        <v>Ford</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f>'group names'!A$7</f>
+        <v>Ford</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f>'group names'!A$7</f>
+        <v>Ford</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f>'group names'!A$7</f>
+        <v>Ford</v>
+      </c>
+      <c r="C37" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f>'group names'!A$8</f>
+        <v>Glen</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f>'group names'!A$8</f>
+        <v>Glen</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f>'group names'!A$8</f>
+        <v>Glen</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f>'group names'!A$8</f>
+        <v>Glen</v>
+      </c>
+      <c r="C41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f>'group names'!A$8</f>
+        <v>Glen</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f>'group names'!A$8</f>
+        <v>Glen</v>
+      </c>
+      <c r="C43" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>'group names'!A$9</f>
+        <v>Harbor</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>'group names'!A$9</f>
+        <v>Harbor</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>'group names'!A$9</f>
+        <v>Harbor</v>
+      </c>
+      <c r="C46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f>'group names'!A$9</f>
+        <v>Harbor</v>
+      </c>
+      <c r="C47" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f>'group names'!A$9</f>
+        <v>Harbor</v>
+      </c>
+      <c r="C48" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f>'group names'!A$9</f>
+        <v>Harbor</v>
+      </c>
+      <c r="C49" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f>'group names'!A$10</f>
+        <v>Inlet</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f>'group names'!A$10</f>
+        <v>Inlet</v>
+      </c>
+      <c r="C51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f>'group names'!A$10</f>
+        <v>Inlet</v>
+      </c>
+      <c r="C52" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f>'group names'!A$10</f>
+        <v>Inlet</v>
+      </c>
+      <c r="C53" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f>'group names'!A$10</f>
+        <v>Inlet</v>
+      </c>
+      <c r="C54" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f>'group names'!A$10</f>
+        <v>Inlet</v>
+      </c>
+      <c r="C55" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f>'group names'!A$11</f>
+        <v>Junction</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f>'group names'!A$11</f>
+        <v>Junction</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f>'group names'!A$11</f>
+        <v>Junction</v>
+      </c>
+      <c r="C58" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="4" t="str">
+        <f>'group names'!A$11</f>
+        <v>Junction</v>
+      </c>
+      <c r="C59" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <f>'group names'!A$11</f>
+        <v>Junction</v>
+      </c>
+      <c r="C60" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="4" t="str">
+        <f>'group names'!A$11</f>
+        <v>Junction</v>
+      </c>
+      <c r="C61" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <f>'group names'!A$12</f>
+        <v>Knoll</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="4" t="str">
+        <f>'group names'!A$12</f>
+        <v>Knoll</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <f>'group names'!A$12</f>
+        <v>Knoll</v>
+      </c>
+      <c r="C64" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="4" t="str">
+        <f>'group names'!A$12</f>
+        <v>Knoll</v>
+      </c>
+      <c r="C65" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <f>'group names'!A$12</f>
+        <v>Knoll</v>
+      </c>
+      <c r="C66" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="4" t="str">
+        <f>'group names'!A$12</f>
+        <v>Knoll</v>
+      </c>
+      <c r="C67" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <f>'group names'!A$13</f>
+        <v>Landing</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="4" t="str">
+        <f>'group names'!A$13</f>
+        <v>Landing</v>
+      </c>
+      <c r="C69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <f>'group names'!A$13</f>
+        <v>Landing</v>
+      </c>
+      <c r="C70" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="4" t="str">
+        <f>'group names'!A$13</f>
+        <v>Landing</v>
+      </c>
+      <c r="C71" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <f>'group names'!A$13</f>
+        <v>Landing</v>
+      </c>
+      <c r="C72" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="4" t="str">
+        <f>'group names'!A$13</f>
+        <v>Landing</v>
+      </c>
+      <c r="C73" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1392,9 +2365,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7094DA6C-F5D8-904A-9463-23A0D10AE5DA}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1403,227 +2378,659 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="17" t="str">
         <f>'list of teams'!A2</f>
         <v>Team A1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>63</v>
+      <c r="B2" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="17" t="str">
         <f>'list of teams'!A3</f>
         <v>Team A2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>65</v>
+      <c r="B3" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="17" t="str">
         <f>'list of teams'!A4</f>
         <v>Team A3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>67</v>
+      <c r="B4" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="17" t="str">
         <f>'list of teams'!A5</f>
         <v>Team A4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>69</v>
+      <c r="B5" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="str">
+      <c r="A6" s="17" t="str">
         <f>'list of teams'!A6</f>
         <v>Team A5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>71</v>
+      <c r="B6" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="str">
+      <c r="A7" s="17" t="str">
         <f>'list of teams'!A7</f>
         <v>Team A6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>73</v>
+      <c r="B7" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="str">
+      <c r="A8" s="17" t="str">
         <f>'list of teams'!A8</f>
         <v>Team B1</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>75</v>
+      <c r="B8" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="str">
+      <c r="A9" s="17" t="str">
         <f>'list of teams'!A9</f>
         <v>Team B2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>77</v>
+      <c r="B9" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="str">
+      <c r="A10" s="17" t="str">
         <f>'list of teams'!A10</f>
         <v>Team B3</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>79</v>
+      <c r="B10" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="str">
+      <c r="A11" s="17" t="str">
         <f>'list of teams'!A11</f>
         <v>Team B4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>81</v>
+      <c r="B11" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="str">
+      <c r="A12" s="17" t="str">
         <f>'list of teams'!A12</f>
         <v>Team B5</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>83</v>
+      <c r="B12" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="str">
+      <c r="A13" s="17" t="str">
         <f>'list of teams'!A13</f>
         <v>Team B6</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>85</v>
+      <c r="B13" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="str">
+      <c r="A14" s="17" t="str">
         <f>'list of teams'!A14</f>
         <v>Team C1</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>87</v>
+      <c r="B14" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="str">
+      <c r="A15" s="17" t="str">
         <f>'list of teams'!A15</f>
         <v>Team C2</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>89</v>
+      <c r="B15" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5" t="str">
+      <c r="A16" s="17" t="str">
         <f>'list of teams'!A16</f>
         <v>Team C3</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>91</v>
+      <c r="B16" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5" t="str">
+      <c r="A17" s="17" t="str">
         <f>'list of teams'!A17</f>
         <v>Team C4</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>93</v>
+      <c r="B17" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="str">
+      <c r="A18" s="17" t="str">
         <f>'list of teams'!A18</f>
         <v>Team C5</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>95</v>
+      <c r="B18" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="str">
+      <c r="A19" s="17" t="str">
         <f>'list of teams'!A19</f>
         <v>Team C6</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>97</v>
+      <c r="B19" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5" t="str">
+      <c r="A20" s="17" t="str">
         <f>'list of teams'!A20</f>
         <v>Team D1</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>99</v>
+      <c r="B20" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5" t="str">
+      <c r="A21" s="17" t="str">
         <f>'list of teams'!A21</f>
         <v>Team D2</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>101</v>
+      <c r="B21" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5" t="str">
+      <c r="A22" s="17" t="str">
         <f>'list of teams'!A22</f>
         <v>Team D3</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>103</v>
+      <c r="B22" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5" t="str">
+      <c r="A23" s="17" t="str">
         <f>'list of teams'!A23</f>
         <v>Team D4</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>105</v>
+      <c r="B23" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5" t="str">
+      <c r="A24" s="17" t="str">
         <f>'list of teams'!A24</f>
         <v>Team D5</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>107</v>
+      <c r="B24" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5" t="str">
+      <c r="A25" s="17" t="str">
         <f>'list of teams'!A25</f>
         <v>Team D6</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>109</v>
+      <c r="B25" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="17" t="str">
+        <f>'list of teams'!A26</f>
+        <v>Team E1</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="17" t="str">
+        <f>'list of teams'!A27</f>
+        <v>Team E2</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17" t="str">
+        <f>'list of teams'!A28</f>
+        <v>Team E3</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17" t="str">
+        <f>'list of teams'!A29</f>
+        <v>Team E4</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="17" t="str">
+        <f>'list of teams'!A30</f>
+        <v>Team E5</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17" t="str">
+        <f>'list of teams'!A31</f>
+        <v>Team E6</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="17" t="str">
+        <f>'list of teams'!A32</f>
+        <v>Team F1</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="17" t="str">
+        <f>'list of teams'!A33</f>
+        <v>Team F2</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="17" t="str">
+        <f>'list of teams'!A34</f>
+        <v>Team F3</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17" t="str">
+        <f>'list of teams'!A35</f>
+        <v>Team F4</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="17" t="str">
+        <f>'list of teams'!A36</f>
+        <v>Team F5</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="17" t="str">
+        <f>'list of teams'!A37</f>
+        <v>Team F6</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="17" t="str">
+        <f>'list of teams'!A38</f>
+        <v>Team G1</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="17" t="str">
+        <f>'list of teams'!A39</f>
+        <v>Team G2</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="17" t="str">
+        <f>'list of teams'!A40</f>
+        <v>Team G3</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="17" t="str">
+        <f>'list of teams'!A41</f>
+        <v>Team G4</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="17" t="str">
+        <f>'list of teams'!A42</f>
+        <v>Team G5</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="17" t="str">
+        <f>'list of teams'!A43</f>
+        <v>Team G6</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="17" t="str">
+        <f>'list of teams'!A44</f>
+        <v>Team H1</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="17" t="str">
+        <f>'list of teams'!A45</f>
+        <v>Team H2</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="17" t="str">
+        <f>'list of teams'!A46</f>
+        <v>Team H3</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="17" t="str">
+        <f>'list of teams'!A47</f>
+        <v>Team H4</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="17" t="str">
+        <f>'list of teams'!A48</f>
+        <v>Team H5</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="17" t="str">
+        <f>'list of teams'!A49</f>
+        <v>Team H6</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="17" t="str">
+        <f>'list of teams'!A50</f>
+        <v>Team I1</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="17" t="str">
+        <f>'list of teams'!A51</f>
+        <v>Team I2</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="17" t="str">
+        <f>'list of teams'!A52</f>
+        <v>Team I3</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="17" t="str">
+        <f>'list of teams'!A53</f>
+        <v>Team I4</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="17" t="str">
+        <f>'list of teams'!A54</f>
+        <v>Team I5</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="17" t="str">
+        <f>'list of teams'!A55</f>
+        <v>Team I6</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="17" t="str">
+        <f>'list of teams'!A56</f>
+        <v>Team J1</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="17" t="str">
+        <f>'list of teams'!A57</f>
+        <v>Team J2</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="17" t="str">
+        <f>'list of teams'!A58</f>
+        <v>Team J3</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="17" t="str">
+        <f>'list of teams'!A59</f>
+        <v>Team J4</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="17" t="str">
+        <f>'list of teams'!A60</f>
+        <v>Team J5</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="17" t="str">
+        <f>'list of teams'!A61</f>
+        <v>Team J6</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="17" t="str">
+        <f>'list of teams'!A62</f>
+        <v>Team K1</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="17" t="str">
+        <f>'list of teams'!A63</f>
+        <v>Team K2</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="17" t="str">
+        <f>'list of teams'!A64</f>
+        <v>Team K3</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="17" t="str">
+        <f>'list of teams'!A65</f>
+        <v>Team K4</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="17" t="str">
+        <f>'list of teams'!A66</f>
+        <v>Team K5</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="17" t="str">
+        <f>'list of teams'!A67</f>
+        <v>Team K6</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="17" t="str">
+        <f>'list of teams'!A68</f>
+        <v>Team L1</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="17" t="str">
+        <f>'list of teams'!A69</f>
+        <v>Team L2</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="17" t="str">
+        <f>'list of teams'!A70</f>
+        <v>Team L3</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="17" t="str">
+        <f>'list of teams'!A71</f>
+        <v>Team L4</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="17" t="str">
+        <f>'list of teams'!A72</f>
+        <v>Team L5</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="17" t="str">
+        <f>'list of teams'!A73</f>
+        <v>Team L6</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +3040,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF3F05E-06AC-6A4B-A200-208805A45293}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0"/>
   </sheetViews>
@@ -1642,51 +3049,76 @@
     <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="43" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" ht="40" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="40" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="2" customFormat="1" ht="40" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="2" customFormat="1" ht="40" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
+    <row r="2" spans="1:1" s="2" customFormat="1" ht="43" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="2" customFormat="1" ht="43" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="2" customFormat="1" ht="43" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="2" customFormat="1" ht="43" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="43" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="43" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="43" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="43" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="43" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="43" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="43" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="43" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
@@ -1698,9 +3130,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B02CA44-6EE3-1E45-A0FA-E7B275D443B3}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
@@ -1721,146 +3155,434 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>50</v>
+      <c r="A2" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="str">
         <f>'group names'!A$2</f>
-        <v>Group A</v>
+        <v>Avenue</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>51</v>
+      <c r="A3" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="str">
         <f>'group names'!A$2</f>
-        <v>Group A</v>
+        <v>Avenue</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
-        <v>52</v>
+      <c r="A4" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="str">
         <f>'group names'!A$2</f>
-        <v>Group A</v>
+        <v>Avenue</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
-        <v>53</v>
+      <c r="A5" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="str">
         <f>'group names'!A$3</f>
-        <v>Group B</v>
+        <v>Bayou</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
-        <v>54</v>
+      <c r="A6" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="5" t="str">
         <f>'group names'!A$3</f>
-        <v>Group B</v>
+        <v>Bayou</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
-        <v>55</v>
+      <c r="A7" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="str">
         <f>'group names'!A$3</f>
-        <v>Group B</v>
+        <v>Bayou</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
-        <v>56</v>
+      <c r="A8" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="str">
         <f>'group names'!A$4</f>
-        <v>Group C</v>
+        <v>Circle</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>57</v>
+      <c r="A9" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="str">
         <f>'group names'!A$4</f>
-        <v>Group C</v>
+        <v>Circle</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
-        <v>58</v>
+      <c r="A10" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>'group names'!A$4</f>
-        <v>Group C</v>
+        <v>Circle</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
-        <v>59</v>
+      <c r="A11" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="str">
         <f>'group names'!A$5</f>
-        <v>Group D</v>
+        <v>Drive</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
-        <v>60</v>
+      <c r="A12" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="str">
         <f>'group names'!A$5</f>
-        <v>Group D</v>
+        <v>Drive</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>61</v>
+      <c r="A13" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="str">
         <f>'group names'!A$5</f>
-        <v>Group D</v>
+        <v>Drive</v>
       </c>
       <c r="C13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f>'group names'!A$6</f>
+        <v>Expressway</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f>'group names'!A$6</f>
+        <v>Expressway</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f>'group names'!A$6</f>
+        <v>Expressway</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f>'group names'!A$7</f>
+        <v>Ford</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f>'group names'!A$7</f>
+        <v>Ford</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f>'group names'!A$7</f>
+        <v>Ford</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f>'group names'!A$8</f>
+        <v>Glen</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f>'group names'!A$8</f>
+        <v>Glen</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>'group names'!A$8</f>
+        <v>Glen</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f>'group names'!A$9</f>
+        <v>Harbor</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f>'group names'!A$9</f>
+        <v>Harbor</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>'group names'!A$9</f>
+        <v>Harbor</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>'group names'!A$10</f>
+        <v>Inlet</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>'group names'!A$10</f>
+        <v>Inlet</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f>'group names'!A$10</f>
+        <v>Inlet</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <f>'group names'!A$11</f>
+        <v>Junction</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>'group names'!A$11</f>
+        <v>Junction</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f>'group names'!A$11</f>
+        <v>Junction</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>'group names'!A$12</f>
+        <v>Knoll</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f>'group names'!A$12</f>
+        <v>Knoll</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="5" t="str">
+        <f>'group names'!A$12</f>
+        <v>Knoll</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <f>'group names'!A$13</f>
+        <v>Landing</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="5" t="str">
+        <f>'group names'!A$13</f>
+        <v>Landing</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <f>'group names'!A$13</f>
+        <v>Landing</v>
+      </c>
+      <c r="C37" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1875,7 +3597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10058E87-174A-E14F-9AEE-7ACFACE9B5BB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
@@ -1892,7 +3616,7 @@
       <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -1903,97 +3627,99 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>38</v>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>38</v>
+      <c r="C3" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
+      <c r="C4" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>38</v>
+      <c r="C5" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>38</v>
+      <c r="C6" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
+      <c r="C7" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://hsquizbowl.org/db/tournaments/7370/" xr:uid="{CB69C4AA-6D2C-2D4F-ACA0-A2ADDE268125}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://acf-quizbowl.com/gameplay-rules/" xr:uid="{2C94EC85-FE0E-234D-9ABC-633C6F7E638E}"/>
-    <hyperlink ref="C6" r:id="rId3" display="https://acf-quizbowl.com/gameplay-rules/" xr:uid="{E4742F99-FE13-BE49-B8C6-51B35D7A0DCF}"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://hsquizbowl.org/db/tournaments/7370/" xr:uid="{40D1F2AD-20C0-644E-946F-1599053E8054}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F35C47F0-70BB-DE4F-9B14-1657C13A4D43}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{25C8790F-46F2-6D45-B286-7DEBA4169B52}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{7FA883E6-2F16-A94B-8465-06774E05E09B}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E7AFF273-7F98-D147-8366-92DBD6E1739B}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{A07F658B-FFD4-724B-B692-623AA39BD09B}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{92A0EC0A-9017-B346-ACDE-95149B8661EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2001,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3F142A-4698-834F-8261-DB2006E5DBFB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="184" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="184" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
@@ -2023,16 +3749,16 @@
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>44</v>
+      <c r="B2" s="14" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="160" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>45</v>
+      <c r="B3" s="15" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data input/prelims_data.xlsx
+++ b/data input/prelims_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/data input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004ercu\Desktop\python\cornerstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1642907F-100B-9A4D-82C3-3A881DB734E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9448B731-F64B-4990-94A5-8803A7733FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="500" windowWidth="30220" windowHeight="19000" xr2:uid="{2114AE23-4723-3F48-88AE-F53CC59B0CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{2114AE23-4723-3F48-88AE-F53CC59B0CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="tournament format" sheetId="6" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="QR codes" sheetId="5" r:id="rId6"/>
     <sheet name="text input" sheetId="4" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,8 +29,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -627,137 +628,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="tournament format"/>
-      <sheetName val="list of teams"/>
-      <sheetName val="team codes"/>
-      <sheetName val="group names"/>
-      <sheetName val="room assignments"/>
-      <sheetName val="QR codes"/>
-      <sheetName val="text input"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Hunter B</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Valley Stream S</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>North Babylon B</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Kings Park B</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Darien A</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Chenery</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>High Tech C</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Kings Park C</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Island Trees</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>North Babylon A</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Darien B</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>High Tech B</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Hunter A</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Mepham B</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Kings Park D</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>High Tech A</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Mepham A</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Woodland Reg.</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Port Jefferson</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Wilton</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Hunter C</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,11 +929,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE5B6E-5562-4B4B-9B01-3722A29F012F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="42.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
@@ -1161,7 +1031,7 @@
       <selection pane="bottomLeft" activeCell="C16" sqref="C16:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="28.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="3" customWidth="1"/>
@@ -1442,11 +1312,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3BDA-97A0-7C48-BC5D-89202C03BA23}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
@@ -1461,7 +1331,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="str">
-        <f>'[1]list of teams'!A2</f>
+        <f>'list of teams'!A2</f>
         <v>Hunter B</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -1470,7 +1340,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="str">
-        <f>'[1]list of teams'!A3</f>
+        <f>'list of teams'!A3</f>
         <v>Valley Stream S</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -1479,7 +1349,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="str">
-        <f>'[1]list of teams'!A4</f>
+        <f>'list of teams'!A4</f>
         <v>North Babylon B</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -1488,7 +1358,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="str">
-        <f>'[1]list of teams'!A5</f>
+        <f>'list of teams'!A5</f>
         <v>Kings Park B</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1497,7 +1367,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="18" t="str">
-        <f>'[1]list of teams'!A6</f>
+        <f>'list of teams'!A6</f>
         <v>Darien A</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1506,7 +1376,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="str">
-        <f>'[1]list of teams'!A7</f>
+        <f>'list of teams'!A7</f>
         <v>Chenery</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1515,7 +1385,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="str">
-        <f>'[1]list of teams'!A8</f>
+        <f>'list of teams'!A8</f>
         <v>High Tech C</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1524,7 +1394,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="str">
-        <f>'[1]list of teams'!A9</f>
+        <f>'list of teams'!A9</f>
         <v>Kings Park C</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -1533,7 +1403,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="str">
-        <f>'[1]list of teams'!A10</f>
+        <f>'list of teams'!A10</f>
         <v>Island Trees</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1542,7 +1412,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="18" t="str">
-        <f>'[1]list of teams'!A11</f>
+        <f>'list of teams'!A11</f>
         <v>North Babylon A</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -1551,7 +1421,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="18" t="str">
-        <f>'[1]list of teams'!A12</f>
+        <f>'list of teams'!A12</f>
         <v>Darien B</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -1560,7 +1430,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="18" t="str">
-        <f>'[1]list of teams'!A13</f>
+        <f>'list of teams'!A13</f>
         <v>High Tech B</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -1569,7 +1439,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="18" t="str">
-        <f>'[1]list of teams'!A14</f>
+        <f>'list of teams'!A14</f>
         <v>Hunter A</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -1578,7 +1448,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="18" t="str">
-        <f>'[1]list of teams'!A15</f>
+        <f>'list of teams'!A15</f>
         <v>Mepham B</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -1587,7 +1457,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="18" t="str">
-        <f>'[1]list of teams'!A16</f>
+        <f>'list of teams'!A16</f>
         <v>Kings Park D</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -1596,7 +1466,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="18" t="str">
-        <f>'[1]list of teams'!A17</f>
+        <f>'list of teams'!A17</f>
         <v>High Tech A</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -1605,7 +1475,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="18" t="str">
-        <f>'[1]list of teams'!A18</f>
+        <f>'list of teams'!A18</f>
         <v>Mepham A</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -1614,7 +1484,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="18" t="str">
-        <f>'[1]list of teams'!A19</f>
+        <f>'list of teams'!A19</f>
         <v>Woodland Reg.</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -1623,7 +1493,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="18" t="str">
-        <f>'[1]list of teams'!A20</f>
+        <f>'list of teams'!A20</f>
         <v>Port Jefferson</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -1632,7 +1502,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="18" t="str">
-        <f>'[1]list of teams'!A21</f>
+        <f>'list of teams'!A21</f>
         <v>Wilton</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -1641,7 +1511,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="18" t="str">
-        <f>'[1]list of teams'!A22</f>
+        <f>'list of teams'!A22</f>
         <v>Hunter C</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -1650,6 +1520,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1661,7 +1532,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
@@ -1723,7 +1594,7 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -1864,7 +1735,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="21.109375" customWidth="1"/>
@@ -1994,7 +1865,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
     <col min="2" max="2" width="47.109375" customWidth="1"/>

--- a/data input/prelims_data.xlsx
+++ b/data input/prelims_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004ercu\Desktop\python\cornerstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004ercu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9448B731-F64B-4990-94A5-8803A7733FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A50ECA-C231-4F1E-BF38-9F6303EF1BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{2114AE23-4723-3F48-88AE-F53CC59B0CBE}"/>
+    <workbookView xWindow="57490" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{2114AE23-4723-3F48-88AE-F53CC59B0CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="tournament format" sheetId="6" r:id="rId1"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
   <si>
     <t>Team</t>
   </si>
@@ -353,9 +351,6 @@
   </si>
   <si>
     <t>Room 242</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -929,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE5B6E-5562-4B4B-9B01-3722A29F012F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -989,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>32</v>
@@ -1312,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3BDA-97A0-7C48-BC5D-89202C03BA23}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
